--- a/SEO/SEO.xlsx
+++ b/SEO/SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardochitagu/Documents/GitHub/Drillmark/SEO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5BA5A7B-9FDF-5840-AFA8-4037C05EFE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3EEBAD-6018-AF43-BB42-C3A6A6066ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12560" yWindow="460" windowWidth="38640" windowHeight="21840" xr2:uid="{3132DCF3-C12B-448E-B938-B91003148DD3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>MAIN CATEGORY (MENU)</t>
   </si>
@@ -55,27 +55,15 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>curtain rods and mirrors in harare zimbabwe</t>
-  </si>
-  <si>
     <t>Buy curtain rods, mirrors and home furnishing products with the best designs from any of our home furniture online catalogue</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>home appliances; defy and capri fridges;</t>
-  </si>
-  <si>
     <t>Buy the latest Defy and Capri fridges, washing machines, Stoves, air conditioners, steam irons &amp; kitchen electricals from our home appliances online catalog</t>
   </si>
   <si>
-    <t>best toasters for sale; smart toasters</t>
-  </si>
-  <si>
-    <t>gas cylinders for sale; cadac gas cylinders, kensys gas</t>
-  </si>
-  <si>
     <t>Shop for the safest cadac and kensys gas cylinders for sale with multiple sizes and prices from our home appliances online catalogue in Harare, Zimbabwe</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t xml:space="preserve"> POWER TRANSMISSION PRODUCTS &amp; ROLLER BEARINGS AND CONSUMABLES</t>
   </si>
   <si>
-    <t xml:space="preserve"> POWER TRANSMISSION PRODUCTS </t>
-  </si>
-  <si>
     <t>SLEEVES</t>
   </si>
   <si>
@@ -163,9 +148,6 @@
     <t>Best quality seals for bearings for sale in Harare, Zimbabwe</t>
   </si>
   <si>
-    <t>Buy the strongest wire ropes  for sale in Harare, Zimbabwe</t>
-  </si>
-  <si>
     <t>Best, quality and Affordable oil seals in Harare, Zimbabwe</t>
   </si>
   <si>
@@ -179,6 +161,27 @@
   </si>
   <si>
     <t>Best and affordable sleeves for bearings  in Harare, Zimbabwe</t>
+  </si>
+  <si>
+    <t>Buy the strongest, best quality and affordable  wire ropes  for sale in Harare, Zimbabwe</t>
+  </si>
+  <si>
+    <t>bearing sleeves;bearings  in harare zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best bearing seals for sale; buy bearing seals in harare zimbabwe </t>
+  </si>
+  <si>
+    <t>wire ropes for sale; harare zimbabwe, ropes</t>
+  </si>
+  <si>
+    <t>Roller Bearing Consumables ; sleeves;vbelts;wire ropes;seals;steel balls;oil seals;wheel bearing kits;agricultural pto shafts</t>
+  </si>
+  <si>
+    <t>ROLLER BEARING CONSUMABLES</t>
+  </si>
+  <si>
+    <t>Power transmission products; V - BELTS;COUPLINGS;SPROCKETS;PULLEYS;CONVEYOR CHAINS;GEAR BOXES;ROLLER CHAINS;TAPER LOCK BUSHES</t>
   </si>
 </sst>
 </file>
@@ -562,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E187668-976B-44B9-91DA-C6E668FAEF66}">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -571,8 +574,8 @@
     <col min="1" max="1" width="61.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75" customWidth="1"/>
+    <col min="5" max="5" width="121.5" customWidth="1"/>
     <col min="6" max="6" width="142.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -601,154 +604,157 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
